--- a/iTF/reports/Defect/Defects.xlsx
+++ b/iTF/reports/Defect/Defects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71647" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77626" uniqueCount="19">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -478,25 +478,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -662,25 +662,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
@@ -783,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>4</v>

--- a/iTF/reports/Defect/Defects.xlsx
+++ b/iTF/reports/Defect/Defects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77626" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173092" uniqueCount="36">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -71,6 +71,57 @@
   </si>
   <si>
     <t>2 - High</t>
+  </si>
+  <si>
+    <t>To verify the validation Message</t>
+  </si>
+  <si>
+    <t>Appropriate Validation Message should display</t>
+  </si>
+  <si>
+    <t>Validation Message is displaying wrong</t>
+  </si>
+  <si>
+    <t>2)Other Information Taab</t>
+  </si>
+  <si>
+    <t>3)Click Login information Tab</t>
+  </si>
+  <si>
+    <t>4)Click Setting Tab</t>
+  </si>
+  <si>
+    <t>5)Click Profile Information Tab</t>
+  </si>
+  <si>
+    <t>6)Click Save</t>
+  </si>
+  <si>
+    <t>7)Verify the Validation Message</t>
+  </si>
+  <si>
+    <t>8)Click Close</t>
+  </si>
+  <si>
+    <t>2)Enter Firstname</t>
+  </si>
+  <si>
+    <t>3)Verify the Firstname Validation Message</t>
+  </si>
+  <si>
+    <t>4)Enter Middle Name</t>
+  </si>
+  <si>
+    <t>5)Verify the Middle Name Validation Message</t>
+  </si>
+  <si>
+    <t>6)Enter Last Name</t>
+  </si>
+  <si>
+    <t>8)Enter address</t>
+  </si>
+  <si>
+    <t>9)Click Close</t>
   </si>
 </sst>
 </file>
@@ -481,16 +532,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -507,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -530,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -553,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -576,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -599,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -622,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -645,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -662,25 +713,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -714,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -737,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -760,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
@@ -783,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -806,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -829,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
@@ -852,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>4</v>

--- a/iTF/reports/Defect/Defects.xlsx
+++ b/iTF/reports/Defect/Defects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173092" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190921" uniqueCount="36">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -529,25 +529,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -581,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -673,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>

--- a/iTF/reports/Defect/Defects.xlsx
+++ b/iTF/reports/Defect/Defects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190921" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196871" uniqueCount="36">
   <si>
     <t>Test Scenario</t>
   </si>

--- a/iTF/reports/Defect/Defects.xlsx
+++ b/iTF/reports/Defect/Defects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196871" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208764" uniqueCount="36">
   <si>
     <t>Test Scenario</t>
   </si>
